--- a/Documentación/IC4301 - ProyectoNo2 - DistribuciónTrabajo.xlsx
+++ b/Documentación/IC4301 - ProyectoNo2 - DistribuciónTrabajo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CREAR TABLAS" sheetId="2" r:id="rId1"/>
@@ -260,28 +260,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -379,11 +357,33 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -405,12 +405,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:D22" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A6:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Crear_Tablas" displayName="Crear_Tablas" ref="A6:D22" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A6:D22">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CATALOGO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="TABLA"/>
-    <tableColumn id="3" name=" " dataDxfId="6"/>
+    <tableColumn id="3" name=" " dataDxfId="4"/>
     <tableColumn id="4" name="TIPO"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -418,7 +424,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:K1047430" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A6:K1047430" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A6:K1047430"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID"/>
@@ -438,12 +444,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A2:C6" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A2:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Consulta"/>
     <tableColumn id="3" name=" "/>
-    <tableColumn id="2" name="Encargada" dataDxfId="2"/>
+    <tableColumn id="2" name="Encargada" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -714,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -778,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -792,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -806,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -849,7 +855,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -905,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -961,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1231,7 +1237,7 @@
   <dimension ref="A3:K35"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1343,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1352,7 +1358,7 @@
         <v>16</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -1378,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1413,7 +1419,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1448,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1483,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1492,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
@@ -1518,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1527,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -1553,7 +1559,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1588,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1597,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
@@ -1623,7 +1629,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1632,7 +1638,7 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -1658,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1667,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
@@ -1693,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1728,7 +1734,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1737,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -1763,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1772,7 +1778,7 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1798,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1953,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
